--- a/data/df2_20210207_EBS_보충.xlsx
+++ b/data/df2_20210207_EBS_보충.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kungmo/PycharmProjects/faq_chatbot_science_3rd/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WinPython37F\notebooks\faq_chatbot_science_3rd\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845938BB-9B79-FF41-9CE0-E8E6D82E5293}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D670B5-4FD3-47A1-BED0-2602A7F6E7F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="1435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="1433">
   <si>
     <t>질문</t>
   </si>
@@ -300,12 +300,6 @@
   </si>
   <si>
     <t>반가워요^^이 부분은 쌤이 강의할때 설명한  부분이 있는데요다시 자세히 알려드리자면물질이 산소와 반응할때는 물질의 종류에 따라서 다른 특징이 있어요마그네슘 처럼 금속은 산소와 반응하면서 결합하여 질량이 증가하구요종이나 나무는 산소와 반응하면서 새로운 기체가 만들어진답니다. 따라서, 마그네슘은 연소할때 산소가 마그네슘에 달라붙습니다.하지만 나무는 연소할 때 나무의 성분 중에서 탄소는 산소와 결합하여 이산화 탄소가 되어 공기 중으로 날아가버린답니다.</t>
-  </si>
-  <si>
-    <t>선생님! 3강 15분쯤에서! (가)질량과 (나)질랴은 무엇(누구)를 말하나요?</t>
-  </si>
-  <si>
-    <t>반가워요^^(가)는 반응이 일어나기 전의 질량이구요(나)는 기체가 발생하는 반응이 일어난 후의 질량입니다.</t>
   </si>
   <si>
     <t>선생님! 과학! 화학변화 질량보존에서요! 화학변화에서의 질량은 무엇을 말하나요?__+__-&gt;___일떄 반응물들의 합을 질량이라고 하나요?아니면 반응물합과 용기+물까지 더한값을 질량이라고 하나요....그리고 질량보존 법칙은 화학변화만 성립되나요?</t>
@@ -4763,15 +4757,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C749"/>
+  <dimension ref="A1:C748"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
       <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="119.1640625" customWidth="1"/>
+    <col min="2" max="2" width="119.19921875" customWidth="1"/>
     <col min="3" max="3" width="126.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4788,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -4843,7 +4837,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -4865,7 +4859,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -4876,7 +4870,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -4887,7 +4881,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -4898,7 +4892,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -4909,7 +4903,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -4920,7 +4914,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
@@ -4931,7 +4925,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -4942,7 +4936,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
@@ -4953,7 +4947,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -4964,7 +4958,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
@@ -4986,7 +4980,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -4997,7 +4991,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -5008,7 +5002,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -5019,7 +5013,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -5030,7 +5024,7 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -5052,7 +5046,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
@@ -5063,7 +5057,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
@@ -5085,7 +5079,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="C29" t="s">
         <v>38</v>
@@ -5096,7 +5090,7 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
@@ -5118,7 +5112,7 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="C32" t="s">
         <v>42</v>
@@ -5129,7 +5123,7 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="C33" t="s">
         <v>43</v>
@@ -5184,7 +5178,7 @@
         <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="C38" t="s">
         <v>52</v>
@@ -5195,7 +5189,7 @@
         <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="C39" t="s">
         <v>53</v>
@@ -5228,7 +5222,7 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C42" t="s">
         <v>58</v>
@@ -5239,7 +5233,7 @@
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="C43" t="s">
         <v>59</v>
@@ -5250,7 +5244,7 @@
         <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="C44" t="s">
         <v>60</v>
@@ -5261,7 +5255,7 @@
         <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="C45" t="s">
         <v>61</v>
@@ -5272,7 +5266,7 @@
         <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="C46" t="s">
         <v>60</v>
@@ -5283,10 +5277,10 @@
         <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="C47" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -5294,7 +5288,7 @@
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="C48" t="s">
         <v>62</v>
@@ -5316,7 +5310,7 @@
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="C50" t="s">
         <v>65</v>
@@ -5327,7 +5321,7 @@
         <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="C51" t="s">
         <v>66</v>
@@ -5349,7 +5343,7 @@
         <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="C53" t="s">
         <v>69</v>
@@ -5360,7 +5354,7 @@
         <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="C54" t="s">
         <v>70</v>
@@ -5371,7 +5365,7 @@
         <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="C55" t="s">
         <v>71</v>
@@ -5382,7 +5376,7 @@
         <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="C56" t="s">
         <v>72</v>
@@ -5415,7 +5409,7 @@
         <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="C59" t="s">
         <v>77</v>
@@ -5426,7 +5420,7 @@
         <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="C60" t="s">
         <v>78</v>
@@ -5481,7 +5475,7 @@
         <v>84</v>
       </c>
       <c r="B65" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="C65" t="s">
         <v>86</v>
@@ -5492,7 +5486,7 @@
         <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C66" t="s">
         <v>87</v>
@@ -5525,7 +5519,7 @@
         <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="C69" t="s">
         <v>92</v>
@@ -5533,7 +5527,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B70" t="s">
         <v>93</v>
@@ -5544,7 +5538,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
         <v>95</v>
@@ -5555,7 +5549,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B72" t="s">
         <v>97</v>
@@ -5566,7 +5560,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" t="s">
         <v>99</v>
@@ -5577,7 +5571,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B74" t="s">
         <v>101</v>
@@ -5588,7 +5582,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B75" t="s">
         <v>103</v>
@@ -5599,7 +5593,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B76" t="s">
         <v>105</v>
@@ -5610,7 +5604,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B77" t="s">
         <v>107</v>
@@ -5621,7 +5615,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B78" t="s">
         <v>109</v>
@@ -5632,7 +5626,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B79" t="s">
         <v>111</v>
@@ -5643,7 +5637,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B80" t="s">
         <v>113</v>
@@ -5654,7 +5648,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B81" t="s">
         <v>115</v>
@@ -5665,7 +5659,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B82" t="s">
         <v>117</v>
@@ -5676,7 +5670,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B83" t="s">
         <v>119</v>
@@ -5687,29 +5681,29 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B84" t="s">
         <v>121</v>
       </c>
       <c r="C84" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B85" t="s">
+        <v>122</v>
+      </c>
+      <c r="C85" t="s">
         <v>123</v>
-      </c>
-      <c r="C85" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B86" t="s">
         <v>124</v>
@@ -5720,7 +5714,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B87" t="s">
         <v>126</v>
@@ -5731,29 +5725,29 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B88" t="s">
         <v>128</v>
       </c>
       <c r="C88" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B89" t="s">
+        <v>129</v>
+      </c>
+      <c r="C89" t="s">
         <v>130</v>
-      </c>
-      <c r="C89" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B90" t="s">
         <v>131</v>
@@ -5764,7 +5758,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B91" t="s">
         <v>133</v>
@@ -5775,7 +5769,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B92" t="s">
         <v>135</v>
@@ -5786,7 +5780,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B93" t="s">
         <v>137</v>
@@ -5797,7 +5791,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B94" t="s">
         <v>139</v>
@@ -5808,7 +5802,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B95" t="s">
         <v>141</v>
@@ -5819,7 +5813,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B96" t="s">
         <v>143</v>
@@ -5830,7 +5824,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B97" t="s">
         <v>145</v>
@@ -5841,7 +5835,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B98" t="s">
         <v>147</v>
@@ -5852,7 +5846,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B99" t="s">
         <v>149</v>
@@ -5863,7 +5857,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B100" t="s">
         <v>151</v>
@@ -5874,7 +5868,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B101" t="s">
         <v>153</v>
@@ -5885,7 +5879,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B102" t="s">
         <v>155</v>
@@ -5896,7 +5890,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B103" t="s">
         <v>157</v>
@@ -5907,7 +5901,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B104" t="s">
         <v>159</v>
@@ -5918,7 +5912,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B105" t="s">
         <v>161</v>
@@ -5929,7 +5923,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B106" t="s">
         <v>163</v>
@@ -5940,7 +5934,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B107" t="s">
         <v>165</v>
@@ -5951,7 +5945,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B108" t="s">
         <v>167</v>
@@ -5962,7 +5956,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B109" t="s">
         <v>169</v>
@@ -5973,7 +5967,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B110" t="s">
         <v>171</v>
@@ -5984,7 +5978,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B111" t="s">
         <v>173</v>
@@ -5995,7 +5989,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B112" t="s">
         <v>175</v>
@@ -6006,7 +6000,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B113" t="s">
         <v>177</v>
@@ -6017,7 +6011,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B114" t="s">
         <v>179</v>
@@ -6028,7 +6022,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B115" t="s">
         <v>181</v>
@@ -6039,7 +6033,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B116" t="s">
         <v>183</v>
@@ -6050,7 +6044,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B117" t="s">
         <v>185</v>
@@ -6061,7 +6055,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B118" t="s">
         <v>187</v>
@@ -6072,7 +6066,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B119" t="s">
         <v>189</v>
@@ -6083,7 +6077,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B120" t="s">
         <v>191</v>
@@ -6094,7 +6088,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B121" t="s">
         <v>193</v>
@@ -6105,7 +6099,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B122" t="s">
         <v>195</v>
@@ -6116,7 +6110,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B123" t="s">
         <v>197</v>
@@ -6127,7 +6121,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B124" t="s">
         <v>199</v>
@@ -6138,7 +6132,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B125" t="s">
         <v>201</v>
@@ -6149,7 +6143,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B126" t="s">
         <v>203</v>
@@ -6160,7 +6154,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B127" t="s">
         <v>205</v>
@@ -6171,7 +6165,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B128" t="s">
         <v>207</v>
@@ -6182,7 +6176,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B129" t="s">
         <v>209</v>
@@ -6193,7 +6187,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B130" t="s">
         <v>211</v>
@@ -6204,7 +6198,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B131" t="s">
         <v>213</v>
@@ -6215,7 +6209,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B132" t="s">
         <v>215</v>
@@ -6226,7 +6220,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B133" t="s">
         <v>217</v>
@@ -6237,7 +6231,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B134" t="s">
         <v>219</v>
@@ -6248,7 +6242,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B135" t="s">
         <v>221</v>
@@ -6259,7 +6253,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B136" t="s">
         <v>223</v>
@@ -6270,7 +6264,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B137" t="s">
         <v>225</v>
@@ -6281,29 +6275,29 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B138" t="s">
         <v>227</v>
       </c>
       <c r="C138" t="s">
-        <v>228</v>
+        <v>69</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B139" t="s">
+        <v>228</v>
+      </c>
+      <c r="C139" t="s">
         <v>229</v>
-      </c>
-      <c r="C139" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B140" t="s">
         <v>230</v>
@@ -6314,7 +6308,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B141" t="s">
         <v>232</v>
@@ -6325,7 +6319,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B142" t="s">
         <v>234</v>
@@ -6336,7 +6330,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B143" t="s">
         <v>236</v>
@@ -6347,7 +6341,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B144" t="s">
         <v>238</v>
@@ -6358,7 +6352,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B145" t="s">
         <v>240</v>
@@ -6369,7 +6363,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B146" t="s">
         <v>242</v>
@@ -6380,7 +6374,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B147" t="s">
         <v>244</v>
@@ -6391,7 +6385,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B148" t="s">
         <v>246</v>
@@ -6402,7 +6396,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B149" t="s">
         <v>248</v>
@@ -6413,7 +6407,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B150" t="s">
         <v>250</v>
@@ -6424,7 +6418,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B151" t="s">
         <v>252</v>
@@ -6435,7 +6429,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B152" t="s">
         <v>254</v>
@@ -6446,7 +6440,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B153" t="s">
         <v>256</v>
@@ -6457,7 +6451,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B154" t="s">
         <v>258</v>
@@ -6468,7 +6462,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B155" t="s">
         <v>260</v>
@@ -6479,7 +6473,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B156" t="s">
         <v>262</v>
@@ -6490,7 +6484,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B157" t="s">
         <v>264</v>
@@ -6501,7 +6495,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B158" t="s">
         <v>266</v>
@@ -6512,29 +6506,29 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B159" t="s">
         <v>268</v>
       </c>
       <c r="C159" t="s">
-        <v>269</v>
+        <v>69</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B160" t="s">
+        <v>269</v>
+      </c>
+      <c r="C160" t="s">
         <v>270</v>
-      </c>
-      <c r="C160" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B161" t="s">
         <v>271</v>
@@ -6545,7 +6539,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B162" t="s">
         <v>273</v>
@@ -6556,7 +6550,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B163" t="s">
         <v>275</v>
@@ -6567,7 +6561,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B164" t="s">
         <v>277</v>
@@ -6578,7 +6572,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B165" t="s">
         <v>279</v>
@@ -6589,7 +6583,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B166" t="s">
         <v>281</v>
@@ -6600,7 +6594,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B167" t="s">
         <v>283</v>
@@ -6611,7 +6605,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B168" t="s">
         <v>285</v>
@@ -6622,7 +6616,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B169" t="s">
         <v>287</v>
@@ -6633,7 +6627,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B170" t="s">
         <v>289</v>
@@ -6644,7 +6638,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B171" t="s">
         <v>291</v>
@@ -6655,7 +6649,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B172" t="s">
         <v>293</v>
@@ -6666,7 +6660,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B173" t="s">
         <v>295</v>
@@ -6677,7 +6671,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B174" t="s">
         <v>297</v>
@@ -6688,7 +6682,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B175" t="s">
         <v>299</v>
@@ -6699,7 +6693,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B176" t="s">
         <v>301</v>
@@ -6710,7 +6704,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B177" t="s">
         <v>303</v>
@@ -6721,7 +6715,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B178" t="s">
         <v>305</v>
@@ -6732,7 +6726,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B179" t="s">
         <v>307</v>
@@ -6743,7 +6737,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B180" t="s">
         <v>309</v>
@@ -6754,7 +6748,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B181" t="s">
         <v>311</v>
@@ -6765,7 +6759,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B182" t="s">
         <v>313</v>
@@ -6776,7 +6770,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B183" t="s">
         <v>315</v>
@@ -6787,7 +6781,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B184" t="s">
         <v>317</v>
@@ -6798,7 +6792,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B185" t="s">
         <v>319</v>
@@ -6809,7 +6803,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B186" t="s">
         <v>321</v>
@@ -6820,7 +6814,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B187" t="s">
         <v>323</v>
@@ -6831,7 +6825,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B188" t="s">
         <v>325</v>
@@ -6842,7 +6836,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B189" t="s">
         <v>327</v>
@@ -6853,7 +6847,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B190" t="s">
         <v>329</v>
@@ -6864,7 +6858,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B191" t="s">
         <v>331</v>
@@ -6875,7 +6869,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B192" t="s">
         <v>333</v>
@@ -6886,7 +6880,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B193" t="s">
         <v>335</v>
@@ -6897,7 +6891,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B194" t="s">
         <v>337</v>
@@ -6908,7 +6902,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B195" t="s">
         <v>339</v>
@@ -6919,7 +6913,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B196" t="s">
         <v>341</v>
@@ -6930,7 +6924,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B197" t="s">
         <v>343</v>
@@ -6941,7 +6935,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B198" t="s">
         <v>345</v>
@@ -6952,7 +6946,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B199" t="s">
         <v>347</v>
@@ -6963,7 +6957,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B200" t="s">
         <v>349</v>
@@ -6974,7 +6968,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B201" t="s">
         <v>351</v>
@@ -6985,7 +6979,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B202" t="s">
         <v>353</v>
@@ -6996,32 +6990,32 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B203" t="s">
+        <v>91</v>
+      </c>
+      <c r="C203" t="s">
         <v>355</v>
-      </c>
-      <c r="C203" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B204" t="s">
-        <v>91</v>
+        <v>267</v>
       </c>
       <c r="C204" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B205" t="s">
-        <v>269</v>
+        <v>357</v>
       </c>
       <c r="C205" t="s">
         <v>358</v>
@@ -7029,7 +7023,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="1">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B206" t="s">
         <v>359</v>
@@ -7040,7 +7034,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B207" t="s">
         <v>361</v>
@@ -7051,7 +7045,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B208" t="s">
         <v>363</v>
@@ -7062,26 +7056,26 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B209" t="s">
         <v>365</v>
       </c>
-      <c r="C209" t="s">
-        <v>366</v>
-      </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B210" t="s">
+        <v>366</v>
+      </c>
+      <c r="C210" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B211" t="s">
         <v>368</v>
@@ -7092,7 +7086,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B212" t="s">
         <v>370</v>
@@ -7103,7 +7097,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B213" t="s">
         <v>372</v>
@@ -7114,7 +7108,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B214" t="s">
         <v>374</v>
@@ -7125,29 +7119,29 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B215" t="s">
         <v>376</v>
       </c>
       <c r="C215" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B216" t="s">
+        <v>377</v>
+      </c>
+      <c r="C216" t="s">
         <v>378</v>
-      </c>
-      <c r="C216" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B217" t="s">
         <v>379</v>
@@ -7158,7 +7152,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B218" t="s">
         <v>381</v>
@@ -7169,7 +7163,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B219" t="s">
         <v>383</v>
@@ -7180,7 +7174,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B220" t="s">
         <v>385</v>
@@ -7191,7 +7185,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B221" t="s">
         <v>387</v>
@@ -7202,7 +7196,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B222" t="s">
         <v>389</v>
@@ -7213,7 +7207,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B223" t="s">
         <v>391</v>
@@ -7224,7 +7218,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B224" t="s">
         <v>393</v>
@@ -7235,7 +7229,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B225" t="s">
         <v>395</v>
@@ -7246,7 +7240,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B226" t="s">
         <v>397</v>
@@ -7257,7 +7251,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B227" t="s">
         <v>399</v>
@@ -7268,7 +7262,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B228" t="s">
         <v>401</v>
@@ -7279,7 +7273,7 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B229" t="s">
         <v>403</v>
@@ -7290,7 +7284,7 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B230" t="s">
         <v>405</v>
@@ -7301,7 +7295,7 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B231" t="s">
         <v>407</v>
@@ -7312,7 +7306,7 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B232" t="s">
         <v>409</v>
@@ -7323,7 +7317,7 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B233" t="s">
         <v>411</v>
@@ -7334,7 +7328,7 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B234" t="s">
         <v>413</v>
@@ -7345,7 +7339,7 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B235" t="s">
         <v>415</v>
@@ -7356,7 +7350,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B236" t="s">
         <v>417</v>
@@ -7367,7 +7361,7 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B237" t="s">
         <v>419</v>
@@ -7378,7 +7372,7 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B238" t="s">
         <v>421</v>
@@ -7389,7 +7383,7 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B239" t="s">
         <v>423</v>
@@ -7400,7 +7394,7 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B240" t="s">
         <v>425</v>
@@ -7411,7 +7405,7 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B241" t="s">
         <v>427</v>
@@ -7422,7 +7416,7 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B242" t="s">
         <v>429</v>
@@ -7433,7 +7427,7 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B243" t="s">
         <v>431</v>
@@ -7444,7 +7438,7 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B244" t="s">
         <v>433</v>
@@ -7455,7 +7449,7 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B245" t="s">
         <v>435</v>
@@ -7466,7 +7460,7 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B246" t="s">
         <v>437</v>
@@ -7477,7 +7471,7 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B247" t="s">
         <v>439</v>
@@ -7488,7 +7482,7 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B248" t="s">
         <v>441</v>
@@ -7499,40 +7493,40 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B249" t="s">
         <v>443</v>
       </c>
       <c r="C249" t="s">
-        <v>444</v>
+        <v>304</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B250" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C250" t="s">
-        <v>306</v>
+        <v>24</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B251" t="s">
+        <v>445</v>
+      </c>
+      <c r="C251" t="s">
         <v>446</v>
-      </c>
-      <c r="C251" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B252" t="s">
         <v>447</v>
@@ -7543,7 +7537,7 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B253" t="s">
         <v>449</v>
@@ -7554,7 +7548,7 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B254" t="s">
         <v>451</v>
@@ -7565,7 +7559,7 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B255" t="s">
         <v>453</v>
@@ -7576,7 +7570,7 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B256" t="s">
         <v>455</v>
@@ -7587,7 +7581,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B257" t="s">
         <v>457</v>
@@ -7598,7 +7592,7 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B258" t="s">
         <v>459</v>
@@ -7609,7 +7603,7 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B259" t="s">
         <v>461</v>
@@ -7620,7 +7614,7 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B260" t="s">
         <v>463</v>
@@ -7631,7 +7625,7 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B261" t="s">
         <v>465</v>
@@ -7642,7 +7636,7 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B262" t="s">
         <v>467</v>
@@ -7653,7 +7647,7 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B263" t="s">
         <v>469</v>
@@ -7664,7 +7658,7 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B264" t="s">
         <v>471</v>
@@ -7675,7 +7669,7 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B265" t="s">
         <v>473</v>
@@ -7686,7 +7680,7 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B266" t="s">
         <v>475</v>
@@ -7697,7 +7691,7 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B267" t="s">
         <v>477</v>
@@ -7708,7 +7702,7 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B268" t="s">
         <v>479</v>
@@ -7719,7 +7713,7 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B269" t="s">
         <v>481</v>
@@ -7730,7 +7724,7 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B270" t="s">
         <v>483</v>
@@ -7741,7 +7735,7 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B271" t="s">
         <v>485</v>
@@ -7752,7 +7746,7 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B272" t="s">
         <v>487</v>
@@ -7763,7 +7757,7 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B273" t="s">
         <v>489</v>
@@ -7774,7 +7768,7 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B274" t="s">
         <v>491</v>
@@ -7785,29 +7779,29 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="1">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B275" t="s">
         <v>493</v>
       </c>
       <c r="C275" t="s">
-        <v>494</v>
+        <v>304</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B276" t="s">
+        <v>494</v>
+      </c>
+      <c r="C276" t="s">
         <v>495</v>
-      </c>
-      <c r="C276" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="1">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B277" t="s">
         <v>496</v>
@@ -7818,7 +7812,7 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="1">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B278" t="s">
         <v>498</v>
@@ -7829,7 +7823,7 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="1">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B279" t="s">
         <v>500</v>
@@ -7840,7 +7834,7 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B280" t="s">
         <v>502</v>
@@ -7851,7 +7845,7 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B281" t="s">
         <v>504</v>
@@ -7862,7 +7856,7 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B282" t="s">
         <v>506</v>
@@ -7873,7 +7867,7 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B283" t="s">
         <v>508</v>
@@ -7884,7 +7878,7 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B284" t="s">
         <v>510</v>
@@ -7895,7 +7889,7 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B285" t="s">
         <v>512</v>
@@ -7906,7 +7900,7 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B286" t="s">
         <v>514</v>
@@ -7917,7 +7911,7 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B287" t="s">
         <v>516</v>
@@ -7928,7 +7922,7 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B288" t="s">
         <v>518</v>
@@ -7939,7 +7933,7 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B289" t="s">
         <v>520</v>
@@ -7950,7 +7944,7 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B290" t="s">
         <v>522</v>
@@ -7961,7 +7955,7 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B291" t="s">
         <v>524</v>
@@ -7972,7 +7966,7 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B292" t="s">
         <v>526</v>
@@ -7983,7 +7977,7 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B293" t="s">
         <v>528</v>
@@ -7994,7 +7988,7 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B294" t="s">
         <v>530</v>
@@ -8005,7 +7999,7 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B295" t="s">
         <v>532</v>
@@ -8016,7 +8010,7 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B296" t="s">
         <v>534</v>
@@ -8027,7 +8021,7 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B297" t="s">
         <v>536</v>
@@ -8038,7 +8032,7 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B298" t="s">
         <v>538</v>
@@ -8049,29 +8043,29 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="1">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B299" t="s">
         <v>540</v>
       </c>
       <c r="C299" t="s">
-        <v>541</v>
+        <v>24</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B300" t="s">
+        <v>541</v>
+      </c>
+      <c r="C300" t="s">
         <v>542</v>
-      </c>
-      <c r="C300" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B301" t="s">
         <v>543</v>
@@ -8082,7 +8076,7 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="1">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B302" t="s">
         <v>545</v>
@@ -8093,21 +8087,21 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B303" t="s">
+        <v>24</v>
+      </c>
+      <c r="C303" t="s">
         <v>547</v>
-      </c>
-      <c r="C303" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B304" t="s">
-        <v>24</v>
+        <v>548</v>
       </c>
       <c r="C304" t="s">
         <v>549</v>
@@ -8115,7 +8109,7 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B305" t="s">
         <v>550</v>
@@ -8126,7 +8120,7 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B306" t="s">
         <v>552</v>
@@ -8137,7 +8131,7 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B307" t="s">
         <v>554</v>
@@ -8148,37 +8142,37 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B308" t="s">
+        <v>525</v>
+      </c>
+      <c r="C308" t="s">
         <v>556</v>
-      </c>
-      <c r="C308" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B309" t="s">
-        <v>527</v>
-      </c>
-      <c r="C309" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B310" t="s">
+        <v>558</v>
+      </c>
+      <c r="C310" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B311" t="s">
         <v>560</v>
@@ -8189,7 +8183,7 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B312" t="s">
         <v>562</v>
@@ -8200,7 +8194,7 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B313" t="s">
         <v>564</v>
@@ -8211,7 +8205,7 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="1">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B314" t="s">
         <v>566</v>
@@ -8222,29 +8216,29 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B315" t="s">
         <v>568</v>
       </c>
       <c r="C315" t="s">
-        <v>569</v>
+        <v>304</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B316" t="s">
+        <v>569</v>
+      </c>
+      <c r="C316" t="s">
         <v>570</v>
-      </c>
-      <c r="C316" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B317" t="s">
         <v>571</v>
@@ -8255,7 +8249,7 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B318" t="s">
         <v>573</v>
@@ -8266,7 +8260,7 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B319" t="s">
         <v>575</v>
@@ -8277,7 +8271,7 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B320" t="s">
         <v>577</v>
@@ -8288,7 +8282,7 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B321" t="s">
         <v>579</v>
@@ -8299,7 +8293,7 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B322" t="s">
         <v>581</v>
@@ -8310,7 +8304,7 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B323" t="s">
         <v>583</v>
@@ -8321,7 +8315,7 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B324" t="s">
         <v>585</v>
@@ -8332,7 +8326,7 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B325" t="s">
         <v>587</v>
@@ -8343,7 +8337,7 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B326" t="s">
         <v>589</v>
@@ -8354,7 +8348,7 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B327" t="s">
         <v>591</v>
@@ -8365,7 +8359,7 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B328" t="s">
         <v>593</v>
@@ -8376,7 +8370,7 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B329" t="s">
         <v>595</v>
@@ -8387,7 +8381,7 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B330" t="s">
         <v>597</v>
@@ -8398,7 +8392,7 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B331" t="s">
         <v>599</v>
@@ -8409,7 +8403,7 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B332" t="s">
         <v>601</v>
@@ -8420,7 +8414,7 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B333" t="s">
         <v>603</v>
@@ -8431,7 +8425,7 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B334" t="s">
         <v>605</v>
@@ -8442,7 +8436,7 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B335" t="s">
         <v>607</v>
@@ -8453,7 +8447,7 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B336" t="s">
         <v>609</v>
@@ -8464,7 +8458,7 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B337" t="s">
         <v>611</v>
@@ -8475,7 +8469,7 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B338" t="s">
         <v>613</v>
@@ -8486,7 +8480,7 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B339" t="s">
         <v>615</v>
@@ -8497,7 +8491,7 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B340" t="s">
         <v>617</v>
@@ -8508,7 +8502,7 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B341" t="s">
         <v>619</v>
@@ -8519,7 +8513,7 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B342" t="s">
         <v>621</v>
@@ -8530,7 +8524,7 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="1">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B343" t="s">
         <v>623</v>
@@ -8541,7 +8535,7 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B344" t="s">
         <v>625</v>
@@ -8552,7 +8546,7 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B345" t="s">
         <v>627</v>
@@ -8563,7 +8557,7 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B346" t="s">
         <v>629</v>
@@ -8574,7 +8568,7 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B347" t="s">
         <v>631</v>
@@ -8585,7 +8579,7 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B348" t="s">
         <v>633</v>
@@ -8596,7 +8590,7 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B349" t="s">
         <v>635</v>
@@ -8607,29 +8601,29 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="1">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B350" t="s">
         <v>637</v>
       </c>
       <c r="C350" t="s">
-        <v>638</v>
+        <v>226</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B351" t="s">
+        <v>638</v>
+      </c>
+      <c r="C351" t="s">
         <v>639</v>
-      </c>
-      <c r="C351" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B352" t="s">
         <v>640</v>
@@ -8640,7 +8634,7 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B353" t="s">
         <v>642</v>
@@ -8651,7 +8645,7 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B354" t="s">
         <v>644</v>
@@ -8662,7 +8656,7 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B355" t="s">
         <v>646</v>
@@ -8673,7 +8667,7 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B356" t="s">
         <v>648</v>
@@ -8684,40 +8678,40 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B357" t="s">
         <v>650</v>
       </c>
       <c r="C357" t="s">
-        <v>651</v>
+        <v>594</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B358" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C358" t="s">
-        <v>596</v>
+        <v>639</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="1">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B359" t="s">
+        <v>652</v>
+      </c>
+      <c r="C359" t="s">
         <v>653</v>
-      </c>
-      <c r="C359" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B360" t="s">
         <v>654</v>
@@ -8728,7 +8722,7 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="1">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B361" t="s">
         <v>656</v>
@@ -8739,7 +8733,7 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="1">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B362" t="s">
         <v>658</v>
@@ -8750,7 +8744,7 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="1">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B363" t="s">
         <v>660</v>
@@ -8761,7 +8755,7 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="1">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B364" t="s">
         <v>662</v>
@@ -8772,7 +8766,7 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="1">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B365" t="s">
         <v>664</v>
@@ -8783,7 +8777,7 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="1">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B366" t="s">
         <v>666</v>
@@ -8794,7 +8788,7 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="1">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B367" t="s">
         <v>668</v>
@@ -8805,7 +8799,7 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="1">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B368" t="s">
         <v>670</v>
@@ -8816,73 +8810,73 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="1">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B369" t="s">
         <v>672</v>
       </c>
       <c r="C369" t="s">
-        <v>673</v>
+        <v>582</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="1">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B370" t="s">
+        <v>673</v>
+      </c>
+      <c r="C370" t="s">
         <v>674</v>
-      </c>
-      <c r="C370" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="1">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B371" t="s">
         <v>675</v>
       </c>
       <c r="C371" t="s">
-        <v>676</v>
+        <v>639</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="1">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B372" t="s">
+        <v>676</v>
+      </c>
+      <c r="C372" t="s">
         <v>677</v>
-      </c>
-      <c r="C372" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="1">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B373" t="s">
         <v>678</v>
       </c>
       <c r="C373" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="1">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B374" t="s">
+        <v>679</v>
+      </c>
+      <c r="C374" t="s">
         <v>680</v>
-      </c>
-      <c r="C374" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="1">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B375" t="s">
         <v>681</v>
@@ -8893,7 +8887,7 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="1">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B376" t="s">
         <v>683</v>
@@ -8904,7 +8898,7 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="1">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B377" t="s">
         <v>685</v>
@@ -8915,7 +8909,7 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="1">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B378" t="s">
         <v>687</v>
@@ -8926,7 +8920,7 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="1">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B379" t="s">
         <v>689</v>
@@ -8937,7 +8931,7 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="1">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B380" t="s">
         <v>691</v>
@@ -8948,7 +8942,7 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B381" t="s">
         <v>693</v>
@@ -8959,7 +8953,7 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="1">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B382" t="s">
         <v>695</v>
@@ -8970,7 +8964,7 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="1">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B383" t="s">
         <v>697</v>
@@ -8981,29 +8975,29 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="1">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B384" t="s">
         <v>699</v>
       </c>
       <c r="C384" t="s">
-        <v>700</v>
+        <v>304</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="1">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B385" t="s">
+        <v>700</v>
+      </c>
+      <c r="C385" t="s">
         <v>701</v>
-      </c>
-      <c r="C385" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="1">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B386" t="s">
         <v>702</v>
@@ -9014,7 +9008,7 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="1">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B387" t="s">
         <v>704</v>
@@ -9025,7 +9019,7 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="1">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B388" t="s">
         <v>706</v>
@@ -9036,7 +9030,7 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="1">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B389" t="s">
         <v>708</v>
@@ -9047,7 +9041,7 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="1">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B390" t="s">
         <v>710</v>
@@ -9058,7 +9052,7 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="1">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B391" t="s">
         <v>712</v>
@@ -9069,7 +9063,7 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="1">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B392" t="s">
         <v>714</v>
@@ -9080,7 +9074,7 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="1">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B393" t="s">
         <v>716</v>
@@ -9091,29 +9085,29 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="1">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B394" t="s">
         <v>718</v>
       </c>
       <c r="C394" t="s">
-        <v>719</v>
+        <v>645</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="1">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B395" t="s">
+        <v>719</v>
+      </c>
+      <c r="C395" t="s">
         <v>720</v>
-      </c>
-      <c r="C395" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="1">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B396" t="s">
         <v>721</v>
@@ -9124,7 +9118,7 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="1">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B397" t="s">
         <v>723</v>
@@ -9135,7 +9129,7 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="1">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B398" t="s">
         <v>725</v>
@@ -9146,29 +9140,29 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="1">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B399" t="s">
         <v>727</v>
       </c>
       <c r="C399" t="s">
-        <v>728</v>
+        <v>24</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="1">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B400" t="s">
+        <v>728</v>
+      </c>
+      <c r="C400" t="s">
         <v>729</v>
-      </c>
-      <c r="C400" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="1">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B401" t="s">
         <v>730</v>
@@ -9179,7 +9173,7 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="1">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B402" t="s">
         <v>732</v>
@@ -9190,7 +9184,7 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="1">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B403" t="s">
         <v>734</v>
@@ -9201,7 +9195,7 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="1">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B404" t="s">
         <v>736</v>
@@ -9212,7 +9206,7 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="1">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B405" t="s">
         <v>738</v>
@@ -9223,7 +9217,7 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="1">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B406" t="s">
         <v>740</v>
@@ -9234,7 +9228,7 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="1">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B407" t="s">
         <v>742</v>
@@ -9245,7 +9239,7 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="1">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B408" t="s">
         <v>744</v>
@@ -9256,7 +9250,7 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="1">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B409" t="s">
         <v>746</v>
@@ -9267,29 +9261,29 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="1">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B410" t="s">
         <v>748</v>
       </c>
       <c r="C410" t="s">
-        <v>749</v>
+        <v>525</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="1">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B411" t="s">
+        <v>749</v>
+      </c>
+      <c r="C411" t="s">
         <v>750</v>
-      </c>
-      <c r="C411" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="1">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B412" t="s">
         <v>751</v>
@@ -9300,7 +9294,7 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="1">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B413" t="s">
         <v>753</v>
@@ -9311,7 +9305,7 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="1">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B414" t="s">
         <v>755</v>
@@ -9322,7 +9316,7 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="1">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B415" t="s">
         <v>757</v>
@@ -9333,7 +9327,7 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="1">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B416" t="s">
         <v>759</v>
@@ -9344,7 +9338,7 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="1">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B417" t="s">
         <v>761</v>
@@ -9355,7 +9349,7 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="1">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B418" t="s">
         <v>763</v>
@@ -9366,7 +9360,7 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="1">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B419" t="s">
         <v>765</v>
@@ -9377,7 +9371,7 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="1">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B420" t="s">
         <v>767</v>
@@ -9388,7 +9382,7 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="1">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B421" t="s">
         <v>769</v>
@@ -9399,7 +9393,7 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="1">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B422" t="s">
         <v>771</v>
@@ -9410,7 +9404,7 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="1">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B423" t="s">
         <v>773</v>
@@ -9421,7 +9415,7 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="1">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B424" t="s">
         <v>775</v>
@@ -9432,7 +9426,7 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="1">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B425" t="s">
         <v>777</v>
@@ -9443,7 +9437,7 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="1">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B426" t="s">
         <v>779</v>
@@ -9454,7 +9448,7 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="1">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B427" t="s">
         <v>781</v>
@@ -9465,7 +9459,7 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="1">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B428" t="s">
         <v>783</v>
@@ -9476,7 +9470,7 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="1">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B429" t="s">
         <v>785</v>
@@ -9487,7 +9481,7 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="1">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B430" t="s">
         <v>787</v>
@@ -9498,7 +9492,7 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="1">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B431" t="s">
         <v>789</v>
@@ -9509,7 +9503,7 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="1">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B432" t="s">
         <v>791</v>
@@ -9520,7 +9514,7 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="1">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B433" t="s">
         <v>793</v>
@@ -9531,7 +9525,7 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="1">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B434" t="s">
         <v>795</v>
@@ -9542,7 +9536,7 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="1">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B435" t="s">
         <v>797</v>
@@ -9553,7 +9547,7 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="1">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B436" t="s">
         <v>799</v>
@@ -9564,7 +9558,7 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B437" t="s">
         <v>801</v>
@@ -9575,29 +9569,29 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="1">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B438" t="s">
         <v>803</v>
       </c>
       <c r="C438" t="s">
-        <v>804</v>
+        <v>464</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="1">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B439" t="s">
+        <v>804</v>
+      </c>
+      <c r="C439" t="s">
         <v>805</v>
-      </c>
-      <c r="C439" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="1">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B440" t="s">
         <v>806</v>
@@ -9608,7 +9602,7 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="1">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B441" t="s">
         <v>808</v>
@@ -9619,7 +9613,7 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="1">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B442" t="s">
         <v>810</v>
@@ -9630,7 +9624,7 @@
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="1">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B443" t="s">
         <v>812</v>
@@ -9641,7 +9635,7 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="1">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B444" t="s">
         <v>814</v>
@@ -9652,7 +9646,7 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="1">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B445" t="s">
         <v>816</v>
@@ -9663,7 +9657,7 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="1">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B446" t="s">
         <v>818</v>
@@ -9674,7 +9668,7 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="1">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B447" t="s">
         <v>820</v>
@@ -9685,7 +9679,7 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="1">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B448" t="s">
         <v>822</v>
@@ -9696,7 +9690,7 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="1">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B449" t="s">
         <v>824</v>
@@ -9707,7 +9701,7 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="1">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B450" t="s">
         <v>826</v>
@@ -9718,7 +9712,7 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="1">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B451" t="s">
         <v>828</v>
@@ -9729,29 +9723,29 @@
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="1">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B452" t="s">
         <v>830</v>
       </c>
       <c r="C452" t="s">
-        <v>831</v>
+        <v>701</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="1">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B453" t="s">
+        <v>831</v>
+      </c>
+      <c r="C453" t="s">
         <v>832</v>
-      </c>
-      <c r="C453" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="1">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B454" t="s">
         <v>833</v>
@@ -9762,7 +9756,7 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="1">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B455" t="s">
         <v>835</v>
@@ -9773,7 +9767,7 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="1">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B456" t="s">
         <v>837</v>
@@ -9784,7 +9778,7 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="1">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B457" t="s">
         <v>839</v>
@@ -9795,7 +9789,7 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="1">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B458" t="s">
         <v>841</v>
@@ -9806,7 +9800,7 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="1">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B459" t="s">
         <v>843</v>
@@ -9817,7 +9811,7 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="1">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B460" t="s">
         <v>845</v>
@@ -9828,7 +9822,7 @@
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="1">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B461" t="s">
         <v>847</v>
@@ -9839,7 +9833,7 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="1">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B462" t="s">
         <v>849</v>
@@ -9850,7 +9844,7 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="1">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B463" t="s">
         <v>851</v>
@@ -9861,7 +9855,7 @@
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="1">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B464" t="s">
         <v>853</v>
@@ -9872,7 +9866,7 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="1">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B465" t="s">
         <v>855</v>
@@ -9883,7 +9877,7 @@
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="1">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B466" t="s">
         <v>857</v>
@@ -9894,7 +9888,7 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="1">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B467" t="s">
         <v>859</v>
@@ -9905,29 +9899,29 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="1">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B468" t="s">
         <v>861</v>
       </c>
       <c r="C468" t="s">
-        <v>862</v>
+        <v>276</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="1">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B469" t="s">
+        <v>862</v>
+      </c>
+      <c r="C469" t="s">
         <v>863</v>
-      </c>
-      <c r="C469" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="1">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B470" t="s">
         <v>864</v>
@@ -9938,7 +9932,7 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="1">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B471" t="s">
         <v>866</v>
@@ -9949,7 +9943,7 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="1">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B472" t="s">
         <v>868</v>
@@ -9960,7 +9954,7 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="1">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B473" t="s">
         <v>870</v>
@@ -9971,7 +9965,7 @@
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="1">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B474" t="s">
         <v>872</v>
@@ -9982,7 +9976,7 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="1">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B475" t="s">
         <v>874</v>
@@ -9993,7 +9987,7 @@
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="1">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B476" t="s">
         <v>876</v>
@@ -10004,7 +9998,7 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="1">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B477" t="s">
         <v>878</v>
@@ -10015,7 +10009,7 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="1">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B478" t="s">
         <v>880</v>
@@ -10026,7 +10020,7 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="1">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B479" t="s">
         <v>882</v>
@@ -10037,7 +10031,7 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="1">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B480" t="s">
         <v>884</v>
@@ -10048,7 +10042,7 @@
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="1">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B481" t="s">
         <v>886</v>
@@ -10059,7 +10053,7 @@
     </row>
     <row r="482" spans="1:3">
       <c r="A482" s="1">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B482" t="s">
         <v>888</v>
@@ -10070,7 +10064,7 @@
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="1">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B483" t="s">
         <v>890</v>
@@ -10081,7 +10075,7 @@
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="1">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B484" t="s">
         <v>892</v>
@@ -10092,7 +10086,7 @@
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="1">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B485" t="s">
         <v>894</v>
@@ -10103,7 +10097,7 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="1">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B486" t="s">
         <v>896</v>
@@ -10114,7 +10108,7 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="1">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B487" t="s">
         <v>898</v>
@@ -10125,7 +10119,7 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="1">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B488" t="s">
         <v>900</v>
@@ -10136,7 +10130,7 @@
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="1">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B489" t="s">
         <v>902</v>
@@ -10147,7 +10141,7 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="1">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B490" t="s">
         <v>904</v>
@@ -10158,7 +10152,7 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="1">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B491" t="s">
         <v>906</v>
@@ -10169,7 +10163,7 @@
     </row>
     <row r="492" spans="1:3">
       <c r="A492" s="1">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B492" t="s">
         <v>908</v>
@@ -10180,7 +10174,7 @@
     </row>
     <row r="493" spans="1:3">
       <c r="A493" s="1">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B493" t="s">
         <v>910</v>
@@ -10191,7 +10185,7 @@
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="1">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B494" t="s">
         <v>912</v>
@@ -10202,7 +10196,7 @@
     </row>
     <row r="495" spans="1:3">
       <c r="A495" s="1">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B495" t="s">
         <v>914</v>
@@ -10213,7 +10207,7 @@
     </row>
     <row r="496" spans="1:3">
       <c r="A496" s="1">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B496" t="s">
         <v>916</v>
@@ -10224,7 +10218,7 @@
     </row>
     <row r="497" spans="1:3">
       <c r="A497" s="1">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B497" t="s">
         <v>918</v>
@@ -10235,7 +10229,7 @@
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="1">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B498" t="s">
         <v>920</v>
@@ -10246,51 +10240,51 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="1">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B499" t="s">
         <v>922</v>
       </c>
       <c r="C499" t="s">
-        <v>923</v>
+        <v>877</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="1">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B500" t="s">
+        <v>923</v>
+      </c>
+      <c r="C500" t="s">
         <v>924</v>
-      </c>
-      <c r="C500" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="1">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B501" t="s">
         <v>925</v>
       </c>
       <c r="C501" t="s">
-        <v>926</v>
+        <v>877</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="1">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B502" t="s">
+        <v>926</v>
+      </c>
+      <c r="C502" t="s">
         <v>927</v>
-      </c>
-      <c r="C502" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="1">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B503" t="s">
         <v>928</v>
@@ -10301,7 +10295,7 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="1">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B504" t="s">
         <v>930</v>
@@ -10312,7 +10306,7 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="1">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B505" t="s">
         <v>932</v>
@@ -10323,7 +10317,7 @@
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B506" t="s">
         <v>934</v>
@@ -10334,7 +10328,7 @@
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B507" t="s">
         <v>936</v>
@@ -10345,7 +10339,7 @@
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B508" t="s">
         <v>938</v>
@@ -10356,7 +10350,7 @@
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B509" t="s">
         <v>940</v>
@@ -10367,7 +10361,7 @@
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="1">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B510" t="s">
         <v>942</v>
@@ -10378,7 +10372,7 @@
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B511" t="s">
         <v>944</v>
@@ -10389,7 +10383,7 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B512" t="s">
         <v>946</v>
@@ -10400,7 +10394,7 @@
     </row>
     <row r="513" spans="1:3">
       <c r="A513" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B513" t="s">
         <v>948</v>
@@ -10411,7 +10405,7 @@
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B514" t="s">
         <v>950</v>
@@ -10422,7 +10416,7 @@
     </row>
     <row r="515" spans="1:3">
       <c r="A515" s="1">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B515" t="s">
         <v>952</v>
@@ -10433,29 +10427,29 @@
     </row>
     <row r="516" spans="1:3">
       <c r="A516" s="1">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B516" t="s">
         <v>954</v>
       </c>
       <c r="C516" t="s">
-        <v>955</v>
+        <v>450</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517" s="1">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B517" t="s">
+        <v>955</v>
+      </c>
+      <c r="C517" t="s">
         <v>956</v>
-      </c>
-      <c r="C517" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" s="1">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B518" t="s">
         <v>957</v>
@@ -10466,7 +10460,7 @@
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="1">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B519" t="s">
         <v>959</v>
@@ -10477,7 +10471,7 @@
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="1">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B520" t="s">
         <v>961</v>
@@ -10488,7 +10482,7 @@
     </row>
     <row r="521" spans="1:3">
       <c r="A521" s="1">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B521" t="s">
         <v>963</v>
@@ -10499,7 +10493,7 @@
     </row>
     <row r="522" spans="1:3">
       <c r="A522" s="1">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B522" t="s">
         <v>965</v>
@@ -10510,7 +10504,7 @@
     </row>
     <row r="523" spans="1:3">
       <c r="A523" s="1">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B523" t="s">
         <v>967</v>
@@ -10521,7 +10515,7 @@
     </row>
     <row r="524" spans="1:3">
       <c r="A524" s="1">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B524" t="s">
         <v>969</v>
@@ -10532,7 +10526,7 @@
     </row>
     <row r="525" spans="1:3">
       <c r="A525" s="1">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B525" t="s">
         <v>971</v>
@@ -10543,7 +10537,7 @@
     </row>
     <row r="526" spans="1:3">
       <c r="A526" s="1">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B526" t="s">
         <v>973</v>
@@ -10554,7 +10548,7 @@
     </row>
     <row r="527" spans="1:3">
       <c r="A527" s="1">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B527" t="s">
         <v>975</v>
@@ -10565,7 +10559,7 @@
     </row>
     <row r="528" spans="1:3">
       <c r="A528" s="1">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B528" t="s">
         <v>977</v>
@@ -10576,7 +10570,7 @@
     </row>
     <row r="529" spans="1:3">
       <c r="A529" s="1">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B529" t="s">
         <v>979</v>
@@ -10587,7 +10581,7 @@
     </row>
     <row r="530" spans="1:3">
       <c r="A530" s="1">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B530" t="s">
         <v>981</v>
@@ -10598,7 +10592,7 @@
     </row>
     <row r="531" spans="1:3">
       <c r="A531" s="1">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B531" t="s">
         <v>983</v>
@@ -10609,7 +10603,7 @@
     </row>
     <row r="532" spans="1:3">
       <c r="A532" s="1">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B532" t="s">
         <v>985</v>
@@ -10620,7 +10614,7 @@
     </row>
     <row r="533" spans="1:3">
       <c r="A533" s="1">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B533" t="s">
         <v>987</v>
@@ -10631,7 +10625,7 @@
     </row>
     <row r="534" spans="1:3">
       <c r="A534" s="1">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B534" t="s">
         <v>989</v>
@@ -10642,7 +10636,7 @@
     </row>
     <row r="535" spans="1:3">
       <c r="A535" s="1">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B535" t="s">
         <v>991</v>
@@ -10653,7 +10647,7 @@
     </row>
     <row r="536" spans="1:3">
       <c r="A536" s="1">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B536" t="s">
         <v>993</v>
@@ -10664,29 +10658,29 @@
     </row>
     <row r="537" spans="1:3">
       <c r="A537" s="1">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B537" t="s">
         <v>995</v>
       </c>
       <c r="C537" t="s">
-        <v>996</v>
+        <v>639</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538" s="1">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B538" t="s">
+        <v>996</v>
+      </c>
+      <c r="C538" t="s">
         <v>997</v>
-      </c>
-      <c r="C538" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="539" spans="1:3">
       <c r="A539" s="1">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B539" t="s">
         <v>998</v>
@@ -10697,29 +10691,29 @@
     </row>
     <row r="540" spans="1:3">
       <c r="A540" s="1">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B540" t="s">
         <v>1000</v>
       </c>
       <c r="C540" t="s">
-        <v>1001</v>
+        <v>871</v>
       </c>
     </row>
     <row r="541" spans="1:3">
       <c r="A541" s="1">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B541" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C541" t="s">
         <v>1002</v>
-      </c>
-      <c r="C541" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="542" spans="1:3">
       <c r="A542" s="1">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B542" t="s">
         <v>1003</v>
@@ -10730,7 +10724,7 @@
     </row>
     <row r="543" spans="1:3">
       <c r="A543" s="1">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B543" t="s">
         <v>1005</v>
@@ -10741,7 +10735,7 @@
     </row>
     <row r="544" spans="1:3">
       <c r="A544" s="1">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B544" t="s">
         <v>1007</v>
@@ -10752,7 +10746,7 @@
     </row>
     <row r="545" spans="1:3">
       <c r="A545" s="1">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B545" t="s">
         <v>1009</v>
@@ -10763,7 +10757,7 @@
     </row>
     <row r="546" spans="1:3">
       <c r="A546" s="1">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B546" t="s">
         <v>1011</v>
@@ -10774,7 +10768,7 @@
     </row>
     <row r="547" spans="1:3">
       <c r="A547" s="1">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B547" t="s">
         <v>1013</v>
@@ -10785,29 +10779,29 @@
     </row>
     <row r="548" spans="1:3">
       <c r="A548" s="1">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B548" t="s">
         <v>1015</v>
       </c>
       <c r="C548" t="s">
-        <v>1016</v>
+        <v>639</v>
       </c>
     </row>
     <row r="549" spans="1:3">
       <c r="A549" s="1">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B549" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C549" t="s">
         <v>1017</v>
-      </c>
-      <c r="C549" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="550" spans="1:3">
       <c r="A550" s="1">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B550" t="s">
         <v>1018</v>
@@ -10818,7 +10812,7 @@
     </row>
     <row r="551" spans="1:3">
       <c r="A551" s="1">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B551" t="s">
         <v>1020</v>
@@ -10829,7 +10823,7 @@
     </row>
     <row r="552" spans="1:3">
       <c r="A552" s="1">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B552" t="s">
         <v>1022</v>
@@ -10840,7 +10834,7 @@
     </row>
     <row r="553" spans="1:3">
       <c r="A553" s="1">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B553" t="s">
         <v>1024</v>
@@ -10851,7 +10845,7 @@
     </row>
     <row r="554" spans="1:3">
       <c r="A554" s="1">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B554" t="s">
         <v>1026</v>
@@ -10862,7 +10856,7 @@
     </row>
     <row r="555" spans="1:3">
       <c r="A555" s="1">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B555" t="s">
         <v>1028</v>
@@ -10873,7 +10867,7 @@
     </row>
     <row r="556" spans="1:3">
       <c r="A556" s="1">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B556" t="s">
         <v>1030</v>
@@ -10884,7 +10878,7 @@
     </row>
     <row r="557" spans="1:3">
       <c r="A557" s="1">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B557" t="s">
         <v>1032</v>
@@ -10895,7 +10889,7 @@
     </row>
     <row r="558" spans="1:3">
       <c r="A558" s="1">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B558" t="s">
         <v>1034</v>
@@ -10906,7 +10900,7 @@
     </row>
     <row r="559" spans="1:3">
       <c r="A559" s="1">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B559" t="s">
         <v>1036</v>
@@ -10917,7 +10911,7 @@
     </row>
     <row r="560" spans="1:3">
       <c r="A560" s="1">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B560" t="s">
         <v>1038</v>
@@ -10928,7 +10922,7 @@
     </row>
     <row r="561" spans="1:3">
       <c r="A561" s="1">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B561" t="s">
         <v>1040</v>
@@ -10939,7 +10933,7 @@
     </row>
     <row r="562" spans="1:3">
       <c r="A562" s="1">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B562" t="s">
         <v>1042</v>
@@ -10950,29 +10944,29 @@
     </row>
     <row r="563" spans="1:3">
       <c r="A563" s="1">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B563" t="s">
         <v>1044</v>
       </c>
       <c r="C563" t="s">
-        <v>1045</v>
+        <v>877</v>
       </c>
     </row>
     <row r="564" spans="1:3">
       <c r="A564" s="1">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B564" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C564" t="s">
         <v>1046</v>
-      </c>
-      <c r="C564" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="565" spans="1:3">
       <c r="A565" s="1">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B565" t="s">
         <v>1047</v>
@@ -10983,7 +10977,7 @@
     </row>
     <row r="566" spans="1:3">
       <c r="A566" s="1">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B566" t="s">
         <v>1049</v>
@@ -10994,7 +10988,7 @@
     </row>
     <row r="567" spans="1:3">
       <c r="A567" s="1">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B567" t="s">
         <v>1051</v>
@@ -11005,7 +10999,7 @@
     </row>
     <row r="568" spans="1:3">
       <c r="A568" s="1">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B568" t="s">
         <v>1053</v>
@@ -11016,29 +11010,29 @@
     </row>
     <row r="569" spans="1:3">
       <c r="A569" s="1">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B569" t="s">
         <v>1055</v>
       </c>
       <c r="C569" t="s">
-        <v>1056</v>
+        <v>172</v>
       </c>
     </row>
     <row r="570" spans="1:3">
       <c r="A570" s="1">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B570" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C570" t="s">
         <v>1057</v>
-      </c>
-      <c r="C570" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="571" spans="1:3">
       <c r="A571" s="1">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B571" t="s">
         <v>1058</v>
@@ -11049,7 +11043,7 @@
     </row>
     <row r="572" spans="1:3">
       <c r="A572" s="1">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B572" t="s">
         <v>1060</v>
@@ -11060,7 +11054,7 @@
     </row>
     <row r="573" spans="1:3">
       <c r="A573" s="1">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B573" t="s">
         <v>1062</v>
@@ -11071,7 +11065,7 @@
     </row>
     <row r="574" spans="1:3">
       <c r="A574" s="1">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B574" t="s">
         <v>1064</v>
@@ -11082,7 +11076,7 @@
     </row>
     <row r="575" spans="1:3">
       <c r="A575" s="1">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B575" t="s">
         <v>1066</v>
@@ -11093,29 +11087,29 @@
     </row>
     <row r="576" spans="1:3">
       <c r="A576" s="1">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B576" t="s">
         <v>1068</v>
       </c>
       <c r="C576" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="577" spans="1:3">
       <c r="A577" s="1">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B577" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C577" t="s">
         <v>1070</v>
-      </c>
-      <c r="C577" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="578" spans="1:3">
       <c r="A578" s="1">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B578" t="s">
         <v>1071</v>
@@ -11126,7 +11120,7 @@
     </row>
     <row r="579" spans="1:3">
       <c r="A579" s="1">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B579" t="s">
         <v>1073</v>
@@ -11137,51 +11131,51 @@
     </row>
     <row r="580" spans="1:3">
       <c r="A580" s="1">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B580" t="s">
         <v>1075</v>
       </c>
       <c r="C580" t="s">
-        <v>1076</v>
+        <v>980</v>
       </c>
     </row>
     <row r="581" spans="1:3">
       <c r="A581" s="1">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B581" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C581" t="s">
         <v>1077</v>
-      </c>
-      <c r="C581" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="582" spans="1:3">
       <c r="A582" s="1">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B582" t="s">
         <v>1078</v>
       </c>
       <c r="C582" t="s">
-        <v>1079</v>
+        <v>671</v>
       </c>
     </row>
     <row r="583" spans="1:3">
       <c r="A583" s="1">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B583" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C583" t="s">
         <v>1080</v>
-      </c>
-      <c r="C583" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="584" spans="1:3">
       <c r="A584" s="1">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B584" t="s">
         <v>1081</v>
@@ -11192,7 +11186,7 @@
     </row>
     <row r="585" spans="1:3">
       <c r="A585" s="1">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B585" t="s">
         <v>1083</v>
@@ -11203,7 +11197,7 @@
     </row>
     <row r="586" spans="1:3">
       <c r="A586" s="1">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B586" t="s">
         <v>1085</v>
@@ -11214,7 +11208,7 @@
     </row>
     <row r="587" spans="1:3">
       <c r="A587" s="1">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B587" t="s">
         <v>1087</v>
@@ -11225,7 +11219,7 @@
     </row>
     <row r="588" spans="1:3">
       <c r="A588" s="1">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B588" t="s">
         <v>1089</v>
@@ -11236,7 +11230,7 @@
     </row>
     <row r="589" spans="1:3">
       <c r="A589" s="1">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B589" t="s">
         <v>1091</v>
@@ -11247,7 +11241,7 @@
     </row>
     <row r="590" spans="1:3">
       <c r="A590" s="1">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B590" t="s">
         <v>1093</v>
@@ -11258,7 +11252,7 @@
     </row>
     <row r="591" spans="1:3">
       <c r="A591" s="1">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B591" t="s">
         <v>1095</v>
@@ -11269,7 +11263,7 @@
     </row>
     <row r="592" spans="1:3">
       <c r="A592" s="1">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B592" t="s">
         <v>1097</v>
@@ -11280,7 +11274,7 @@
     </row>
     <row r="593" spans="1:3">
       <c r="A593" s="1">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B593" t="s">
         <v>1099</v>
@@ -11291,7 +11285,7 @@
     </row>
     <row r="594" spans="1:3">
       <c r="A594" s="1">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B594" t="s">
         <v>1101</v>
@@ -11302,7 +11296,7 @@
     </row>
     <row r="595" spans="1:3">
       <c r="A595" s="1">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B595" t="s">
         <v>1103</v>
@@ -11313,7 +11307,7 @@
     </row>
     <row r="596" spans="1:3">
       <c r="A596" s="1">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B596" t="s">
         <v>1105</v>
@@ -11324,7 +11318,7 @@
     </row>
     <row r="597" spans="1:3">
       <c r="A597" s="1">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B597" t="s">
         <v>1107</v>
@@ -11335,7 +11329,7 @@
     </row>
     <row r="598" spans="1:3">
       <c r="A598" s="1">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B598" t="s">
         <v>1109</v>
@@ -11346,7 +11340,7 @@
     </row>
     <row r="599" spans="1:3">
       <c r="A599" s="1">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B599" t="s">
         <v>1111</v>
@@ -11357,7 +11351,7 @@
     </row>
     <row r="600" spans="1:3">
       <c r="A600" s="1">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B600" t="s">
         <v>1113</v>
@@ -11368,7 +11362,7 @@
     </row>
     <row r="601" spans="1:3">
       <c r="A601" s="1">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B601" t="s">
         <v>1115</v>
@@ -11379,7 +11373,7 @@
     </row>
     <row r="602" spans="1:3">
       <c r="A602" s="1">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B602" t="s">
         <v>1117</v>
@@ -11390,7 +11384,7 @@
     </row>
     <row r="603" spans="1:3">
       <c r="A603" s="1">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B603" t="s">
         <v>1119</v>
@@ -11401,7 +11395,7 @@
     </row>
     <row r="604" spans="1:3">
       <c r="A604" s="1">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B604" t="s">
         <v>1121</v>
@@ -11412,29 +11406,29 @@
     </row>
     <row r="605" spans="1:3">
       <c r="A605" s="1">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B605" t="s">
         <v>1123</v>
       </c>
       <c r="C605" t="s">
-        <v>1124</v>
+        <v>15</v>
       </c>
     </row>
     <row r="606" spans="1:3">
       <c r="A606" s="1">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B606" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C606" t="s">
         <v>1125</v>
-      </c>
-      <c r="C606" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="607" spans="1:3">
       <c r="A607" s="1">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B607" t="s">
         <v>1126</v>
@@ -11445,7 +11439,7 @@
     </row>
     <row r="608" spans="1:3">
       <c r="A608" s="1">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B608" t="s">
         <v>1128</v>
@@ -11456,7 +11450,7 @@
     </row>
     <row r="609" spans="1:3">
       <c r="A609" s="1">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B609" t="s">
         <v>1130</v>
@@ -11467,7 +11461,7 @@
     </row>
     <row r="610" spans="1:3">
       <c r="A610" s="1">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B610" t="s">
         <v>1132</v>
@@ -11478,7 +11472,7 @@
     </row>
     <row r="611" spans="1:3">
       <c r="A611" s="1">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B611" t="s">
         <v>1134</v>
@@ -11489,7 +11483,7 @@
     </row>
     <row r="612" spans="1:3">
       <c r="A612" s="1">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B612" t="s">
         <v>1136</v>
@@ -11500,7 +11494,7 @@
     </row>
     <row r="613" spans="1:3">
       <c r="A613" s="1">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B613" t="s">
         <v>1138</v>
@@ -11511,7 +11505,7 @@
     </row>
     <row r="614" spans="1:3">
       <c r="A614" s="1">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B614" t="s">
         <v>1140</v>
@@ -11522,7 +11516,7 @@
     </row>
     <row r="615" spans="1:3">
       <c r="A615" s="1">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B615" t="s">
         <v>1142</v>
@@ -11533,7 +11527,7 @@
     </row>
     <row r="616" spans="1:3">
       <c r="A616" s="1">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B616" t="s">
         <v>1144</v>
@@ -11544,7 +11538,7 @@
     </row>
     <row r="617" spans="1:3">
       <c r="A617" s="1">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B617" t="s">
         <v>1146</v>
@@ -11555,29 +11549,29 @@
     </row>
     <row r="618" spans="1:3">
       <c r="A618" s="1">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B618" t="s">
         <v>1148</v>
       </c>
       <c r="C618" t="s">
-        <v>1149</v>
+        <v>972</v>
       </c>
     </row>
     <row r="619" spans="1:3">
       <c r="A619" s="1">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B619" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C619" t="s">
         <v>1150</v>
-      </c>
-      <c r="C619" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="620" spans="1:3">
       <c r="A620" s="1">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B620" t="s">
         <v>1151</v>
@@ -11588,7 +11582,7 @@
     </row>
     <row r="621" spans="1:3">
       <c r="A621" s="1">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B621" t="s">
         <v>1153</v>
@@ -11599,7 +11593,7 @@
     </row>
     <row r="622" spans="1:3">
       <c r="A622" s="1">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B622" t="s">
         <v>1155</v>
@@ -11610,7 +11604,7 @@
     </row>
     <row r="623" spans="1:3">
       <c r="A623" s="1">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B623" t="s">
         <v>1157</v>
@@ -11621,7 +11615,7 @@
     </row>
     <row r="624" spans="1:3">
       <c r="A624" s="1">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B624" t="s">
         <v>1159</v>
@@ -11632,7 +11626,7 @@
     </row>
     <row r="625" spans="1:3">
       <c r="A625" s="1">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B625" t="s">
         <v>1161</v>
@@ -11643,29 +11637,29 @@
     </row>
     <row r="626" spans="1:3">
       <c r="A626" s="1">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B626" t="s">
         <v>1163</v>
       </c>
       <c r="C626" t="s">
-        <v>1164</v>
+        <v>962</v>
       </c>
     </row>
     <row r="627" spans="1:3">
       <c r="A627" s="1">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B627" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C627" t="s">
         <v>1165</v>
-      </c>
-      <c r="C627" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="628" spans="1:3">
       <c r="A628" s="1">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B628" t="s">
         <v>1166</v>
@@ -11676,7 +11670,7 @@
     </row>
     <row r="629" spans="1:3">
       <c r="A629" s="1">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B629" t="s">
         <v>1168</v>
@@ -11687,7 +11681,7 @@
     </row>
     <row r="630" spans="1:3">
       <c r="A630" s="1">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B630" t="s">
         <v>1170</v>
@@ -11698,7 +11692,7 @@
     </row>
     <row r="631" spans="1:3">
       <c r="A631" s="1">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B631" t="s">
         <v>1172</v>
@@ -11709,7 +11703,7 @@
     </row>
     <row r="632" spans="1:3">
       <c r="A632" s="1">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B632" t="s">
         <v>1174</v>
@@ -11720,7 +11714,7 @@
     </row>
     <row r="633" spans="1:3">
       <c r="A633" s="1">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B633" t="s">
         <v>1176</v>
@@ -11731,7 +11725,7 @@
     </row>
     <row r="634" spans="1:3">
       <c r="A634" s="1">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B634" t="s">
         <v>1178</v>
@@ -11742,7 +11736,7 @@
     </row>
     <row r="635" spans="1:3">
       <c r="A635" s="1">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B635" t="s">
         <v>1180</v>
@@ -11753,7 +11747,7 @@
     </row>
     <row r="636" spans="1:3">
       <c r="A636" s="1">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B636" t="s">
         <v>1182</v>
@@ -11764,7 +11758,7 @@
     </row>
     <row r="637" spans="1:3">
       <c r="A637" s="1">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B637" t="s">
         <v>1184</v>
@@ -11775,7 +11769,7 @@
     </row>
     <row r="638" spans="1:3">
       <c r="A638" s="1">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B638" t="s">
         <v>1186</v>
@@ -11786,7 +11780,7 @@
     </row>
     <row r="639" spans="1:3">
       <c r="A639" s="1">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B639" t="s">
         <v>1188</v>
@@ -11797,7 +11791,7 @@
     </row>
     <row r="640" spans="1:3">
       <c r="A640" s="1">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B640" t="s">
         <v>1190</v>
@@ -11808,7 +11802,7 @@
     </row>
     <row r="641" spans="1:3">
       <c r="A641" s="1">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B641" t="s">
         <v>1192</v>
@@ -11819,7 +11813,7 @@
     </row>
     <row r="642" spans="1:3">
       <c r="A642" s="1">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B642" t="s">
         <v>1194</v>
@@ -11830,7 +11824,7 @@
     </row>
     <row r="643" spans="1:3">
       <c r="A643" s="1">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B643" t="s">
         <v>1196</v>
@@ -11841,7 +11835,7 @@
     </row>
     <row r="644" spans="1:3">
       <c r="A644" s="1">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B644" t="s">
         <v>1198</v>
@@ -11852,7 +11846,7 @@
     </row>
     <row r="645" spans="1:3">
       <c r="A645" s="1">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B645" t="s">
         <v>1200</v>
@@ -11863,29 +11857,29 @@
     </row>
     <row r="646" spans="1:3">
       <c r="A646" s="1">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B646" t="s">
         <v>1202</v>
       </c>
       <c r="C646" t="s">
-        <v>1203</v>
+        <v>962</v>
       </c>
     </row>
     <row r="647" spans="1:3">
       <c r="A647" s="1">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B647" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C647" t="s">
         <v>1204</v>
-      </c>
-      <c r="C647" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="648" spans="1:3">
       <c r="A648" s="1">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B648" t="s">
         <v>1205</v>
@@ -11896,7 +11890,7 @@
     </row>
     <row r="649" spans="1:3">
       <c r="A649" s="1">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B649" t="s">
         <v>1207</v>
@@ -11907,7 +11901,7 @@
     </row>
     <row r="650" spans="1:3">
       <c r="A650" s="1">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B650" t="s">
         <v>1209</v>
@@ -11918,7 +11912,7 @@
     </row>
     <row r="651" spans="1:3">
       <c r="A651" s="1">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B651" t="s">
         <v>1211</v>
@@ -11929,29 +11923,29 @@
     </row>
     <row r="652" spans="1:3">
       <c r="A652" s="1">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B652" t="s">
         <v>1213</v>
       </c>
       <c r="C652" t="s">
-        <v>1214</v>
+        <v>852</v>
       </c>
     </row>
     <row r="653" spans="1:3">
       <c r="A653" s="1">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B653" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C653" t="s">
         <v>1215</v>
-      </c>
-      <c r="C653" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="654" spans="1:3">
       <c r="A654" s="1">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B654" t="s">
         <v>1216</v>
@@ -11962,7 +11956,7 @@
     </row>
     <row r="655" spans="1:3">
       <c r="A655" s="1">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B655" t="s">
         <v>1218</v>
@@ -11973,7 +11967,7 @@
     </row>
     <row r="656" spans="1:3">
       <c r="A656" s="1">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B656" t="s">
         <v>1220</v>
@@ -11984,7 +11978,7 @@
     </row>
     <row r="657" spans="1:3">
       <c r="A657" s="1">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B657" t="s">
         <v>1222</v>
@@ -11995,7 +11989,7 @@
     </row>
     <row r="658" spans="1:3">
       <c r="A658" s="1">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B658" t="s">
         <v>1224</v>
@@ -12006,29 +12000,29 @@
     </row>
     <row r="659" spans="1:3">
       <c r="A659" s="1">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B659" t="s">
         <v>1226</v>
       </c>
       <c r="C659" t="s">
-        <v>1227</v>
+        <v>380</v>
       </c>
     </row>
     <row r="660" spans="1:3">
       <c r="A660" s="1">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B660" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C660" t="s">
         <v>1228</v>
-      </c>
-      <c r="C660" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="661" spans="1:3">
       <c r="A661" s="1">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B661" t="s">
         <v>1229</v>
@@ -12039,7 +12033,7 @@
     </row>
     <row r="662" spans="1:3">
       <c r="A662" s="1">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B662" t="s">
         <v>1231</v>
@@ -12050,7 +12044,7 @@
     </row>
     <row r="663" spans="1:3">
       <c r="A663" s="1">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B663" t="s">
         <v>1233</v>
@@ -12061,7 +12055,7 @@
     </row>
     <row r="664" spans="1:3">
       <c r="A664" s="1">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B664" t="s">
         <v>1235</v>
@@ -12072,7 +12066,7 @@
     </row>
     <row r="665" spans="1:3">
       <c r="A665" s="1">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B665" t="s">
         <v>1237</v>
@@ -12083,29 +12077,29 @@
     </row>
     <row r="666" spans="1:3">
       <c r="A666" s="1">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B666" t="s">
         <v>1239</v>
       </c>
       <c r="C666" t="s">
-        <v>1240</v>
+        <v>929</v>
       </c>
     </row>
     <row r="667" spans="1:3">
       <c r="A667" s="1">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B667" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C667" t="s">
         <v>1241</v>
-      </c>
-      <c r="C667" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="668" spans="1:3">
       <c r="A668" s="1">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B668" t="s">
         <v>1242</v>
@@ -12116,29 +12110,29 @@
     </row>
     <row r="669" spans="1:3">
       <c r="A669" s="1">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B669" t="s">
         <v>1244</v>
       </c>
       <c r="C669" t="s">
-        <v>1245</v>
+        <v>726</v>
       </c>
     </row>
     <row r="670" spans="1:3">
       <c r="A670" s="1">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B670" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C670" t="s">
         <v>1246</v>
-      </c>
-      <c r="C670" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="671" spans="1:3">
       <c r="A671" s="1">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B671" t="s">
         <v>1247</v>
@@ -12149,62 +12143,62 @@
     </row>
     <row r="672" spans="1:3">
       <c r="A672" s="1">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B672" t="s">
         <v>1249</v>
       </c>
       <c r="C672" t="s">
-        <v>1250</v>
+        <v>659</v>
       </c>
     </row>
     <row r="673" spans="1:3">
       <c r="A673" s="1">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B673" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C673" t="s">
         <v>1251</v>
-      </c>
-      <c r="C673" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="674" spans="1:3">
       <c r="A674" s="1">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B674" t="s">
         <v>1252</v>
       </c>
       <c r="C674" t="s">
-        <v>1253</v>
+        <v>550</v>
       </c>
     </row>
     <row r="675" spans="1:3">
       <c r="A675" s="1">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B675" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C675" t="s">
-        <v>552</v>
+        <v>24</v>
       </c>
     </row>
     <row r="676" spans="1:3">
       <c r="A676" s="1">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B676" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C676" t="s">
         <v>1255</v>
-      </c>
-      <c r="C676" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="677" spans="1:3">
       <c r="A677" s="1">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B677" t="s">
         <v>1256</v>
@@ -12215,7 +12209,7 @@
     </row>
     <row r="678" spans="1:3">
       <c r="A678" s="1">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B678" t="s">
         <v>1258</v>
@@ -12226,7 +12220,7 @@
     </row>
     <row r="679" spans="1:3">
       <c r="A679" s="1">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B679" t="s">
         <v>1260</v>
@@ -12237,7 +12231,7 @@
     </row>
     <row r="680" spans="1:3">
       <c r="A680" s="1">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B680" t="s">
         <v>1262</v>
@@ -12248,7 +12242,7 @@
     </row>
     <row r="681" spans="1:3">
       <c r="A681" s="1">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B681" t="s">
         <v>1264</v>
@@ -12259,7 +12253,7 @@
     </row>
     <row r="682" spans="1:3">
       <c r="A682" s="1">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B682" t="s">
         <v>1266</v>
@@ -12270,7 +12264,7 @@
     </row>
     <row r="683" spans="1:3">
       <c r="A683" s="1">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B683" t="s">
         <v>1268</v>
@@ -12281,7 +12275,7 @@
     </row>
     <row r="684" spans="1:3">
       <c r="A684" s="1">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B684" t="s">
         <v>1270</v>
@@ -12292,7 +12286,7 @@
     </row>
     <row r="685" spans="1:3">
       <c r="A685" s="1">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B685" t="s">
         <v>1272</v>
@@ -12303,7 +12297,7 @@
     </row>
     <row r="686" spans="1:3">
       <c r="A686" s="1">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B686" t="s">
         <v>1274</v>
@@ -12314,7 +12308,7 @@
     </row>
     <row r="687" spans="1:3">
       <c r="A687" s="1">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B687" t="s">
         <v>1276</v>
@@ -12325,7 +12319,7 @@
     </row>
     <row r="688" spans="1:3">
       <c r="A688" s="1">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B688" t="s">
         <v>1278</v>
@@ -12336,7 +12330,7 @@
     </row>
     <row r="689" spans="1:3">
       <c r="A689" s="1">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B689" t="s">
         <v>1280</v>
@@ -12347,29 +12341,29 @@
     </row>
     <row r="690" spans="1:3">
       <c r="A690" s="1">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B690" t="s">
         <v>1282</v>
       </c>
       <c r="C690" t="s">
-        <v>1283</v>
+        <v>659</v>
       </c>
     </row>
     <row r="691" spans="1:3">
       <c r="A691" s="1">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B691" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C691" t="s">
         <v>1284</v>
-      </c>
-      <c r="C691" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="692" spans="1:3">
       <c r="A692" s="1">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B692" t="s">
         <v>1285</v>
@@ -12380,29 +12374,29 @@
     </row>
     <row r="693" spans="1:3">
       <c r="A693" s="1">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B693" t="s">
         <v>1287</v>
       </c>
       <c r="C693" t="s">
-        <v>1288</v>
+        <v>960</v>
       </c>
     </row>
     <row r="694" spans="1:3">
       <c r="A694" s="1">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B694" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C694" t="s">
         <v>1289</v>
-      </c>
-      <c r="C694" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="695" spans="1:3">
       <c r="A695" s="1">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B695" t="s">
         <v>1290</v>
@@ -12413,7 +12407,7 @@
     </row>
     <row r="696" spans="1:3">
       <c r="A696" s="1">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B696" t="s">
         <v>1292</v>
@@ -12424,7 +12418,7 @@
     </row>
     <row r="697" spans="1:3">
       <c r="A697" s="1">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B697" t="s">
         <v>1294</v>
@@ -12435,7 +12429,7 @@
     </row>
     <row r="698" spans="1:3">
       <c r="A698" s="1">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B698" t="s">
         <v>1296</v>
@@ -12446,7 +12440,7 @@
     </row>
     <row r="699" spans="1:3">
       <c r="A699" s="1">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B699" t="s">
         <v>1298</v>
@@ -12457,7 +12451,7 @@
     </row>
     <row r="700" spans="1:3">
       <c r="A700" s="1">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B700" t="s">
         <v>1300</v>
@@ -12468,7 +12462,7 @@
     </row>
     <row r="701" spans="1:3">
       <c r="A701" s="1">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B701" t="s">
         <v>1302</v>
@@ -12479,7 +12473,7 @@
     </row>
     <row r="702" spans="1:3">
       <c r="A702" s="1">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B702" t="s">
         <v>1304</v>
@@ -12490,7 +12484,7 @@
     </row>
     <row r="703" spans="1:3">
       <c r="A703" s="1">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B703" t="s">
         <v>1306</v>
@@ -12501,7 +12495,7 @@
     </row>
     <row r="704" spans="1:3">
       <c r="A704" s="1">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B704" t="s">
         <v>1308</v>
@@ -12512,7 +12506,7 @@
     </row>
     <row r="705" spans="1:3">
       <c r="A705" s="1">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B705" t="s">
         <v>1310</v>
@@ -12523,7 +12517,7 @@
     </row>
     <row r="706" spans="1:3">
       <c r="A706" s="1">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B706" t="s">
         <v>1312</v>
@@ -12534,7 +12528,7 @@
     </row>
     <row r="707" spans="1:3">
       <c r="A707" s="1">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B707" t="s">
         <v>1314</v>
@@ -12545,7 +12539,7 @@
     </row>
     <row r="708" spans="1:3">
       <c r="A708" s="1">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B708" t="s">
         <v>1316</v>
@@ -12556,7 +12550,7 @@
     </row>
     <row r="709" spans="1:3">
       <c r="A709" s="1">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B709" t="s">
         <v>1318</v>
@@ -12567,62 +12561,62 @@
     </row>
     <row r="710" spans="1:3">
       <c r="A710" s="1">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B710" t="s">
         <v>1320</v>
       </c>
       <c r="C710" t="s">
-        <v>1321</v>
+        <v>71</v>
       </c>
     </row>
     <row r="711" spans="1:3">
       <c r="A711" s="1">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B711" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C711" t="s">
         <v>1322</v>
-      </c>
-      <c r="C711" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="712" spans="1:3">
       <c r="A712" s="1">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B712" t="s">
         <v>1323</v>
       </c>
       <c r="C712" t="s">
-        <v>1324</v>
+        <v>380</v>
       </c>
     </row>
     <row r="713" spans="1:3">
       <c r="A713" s="1">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B713" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C713" t="s">
-        <v>382</v>
+        <v>659</v>
       </c>
     </row>
     <row r="714" spans="1:3">
       <c r="A714" s="1">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B714" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C714" t="s">
         <v>1326</v>
-      </c>
-      <c r="C714" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="715" spans="1:3">
       <c r="A715" s="1">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B715" t="s">
         <v>1327</v>
@@ -12633,7 +12627,7 @@
     </row>
     <row r="716" spans="1:3">
       <c r="A716" s="1">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B716" t="s">
         <v>1329</v>
@@ -12644,7 +12638,7 @@
     </row>
     <row r="717" spans="1:3">
       <c r="A717" s="1">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B717" t="s">
         <v>1331</v>
@@ -12655,7 +12649,7 @@
     </row>
     <row r="718" spans="1:3">
       <c r="A718" s="1">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B718" t="s">
         <v>1333</v>
@@ -12666,7 +12660,7 @@
     </row>
     <row r="719" spans="1:3">
       <c r="A719" s="1">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B719" t="s">
         <v>1335</v>
@@ -12677,7 +12671,7 @@
     </row>
     <row r="720" spans="1:3">
       <c r="A720" s="1">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B720" t="s">
         <v>1337</v>
@@ -12688,40 +12682,40 @@
     </row>
     <row r="721" spans="1:3">
       <c r="A721" s="1">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B721" t="s">
         <v>1339</v>
       </c>
       <c r="C721" t="s">
-        <v>1340</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="722" spans="1:3">
       <c r="A722" s="1">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B722" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C722" t="s">
-        <v>1332</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="723" spans="1:3">
       <c r="A723" s="1">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B723" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C723" t="s">
         <v>1342</v>
-      </c>
-      <c r="C723" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="724" spans="1:3">
       <c r="A724" s="1">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B724" t="s">
         <v>1343</v>
@@ -12732,29 +12726,29 @@
     </row>
     <row r="725" spans="1:3">
       <c r="A725" s="1">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B725" t="s">
         <v>1345</v>
       </c>
       <c r="C725" t="s">
-        <v>1346</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="726" spans="1:3">
       <c r="A726" s="1">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B726" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C726" t="s">
         <v>1347</v>
-      </c>
-      <c r="C726" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="727" spans="1:3">
       <c r="A727" s="1">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B727" t="s">
         <v>1348</v>
@@ -12765,7 +12759,7 @@
     </row>
     <row r="728" spans="1:3">
       <c r="A728" s="1">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B728" t="s">
         <v>1350</v>
@@ -12776,7 +12770,7 @@
     </row>
     <row r="729" spans="1:3">
       <c r="A729" s="1">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B729" t="s">
         <v>1352</v>
@@ -12787,7 +12781,7 @@
     </row>
     <row r="730" spans="1:3">
       <c r="A730" s="1">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B730" t="s">
         <v>1354</v>
@@ -12798,7 +12792,7 @@
     </row>
     <row r="731" spans="1:3">
       <c r="A731" s="1">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B731" t="s">
         <v>1356</v>
@@ -12809,7 +12803,7 @@
     </row>
     <row r="732" spans="1:3">
       <c r="A732" s="1">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B732" t="s">
         <v>1358</v>
@@ -12820,7 +12814,7 @@
     </row>
     <row r="733" spans="1:3">
       <c r="A733" s="1">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B733" t="s">
         <v>1360</v>
@@ -12831,29 +12825,29 @@
     </row>
     <row r="734" spans="1:3">
       <c r="A734" s="1">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B734" t="s">
         <v>1362</v>
       </c>
       <c r="C734" t="s">
-        <v>1363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="735" spans="1:3">
       <c r="A735" s="1">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B735" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C735" t="s">
         <v>1364</v>
-      </c>
-      <c r="C735" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="736" spans="1:3">
       <c r="A736" s="1">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B736" t="s">
         <v>1365</v>
@@ -12864,7 +12858,7 @@
     </row>
     <row r="737" spans="1:3">
       <c r="A737" s="1">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B737" t="s">
         <v>1367</v>
@@ -12875,7 +12869,7 @@
     </row>
     <row r="738" spans="1:3">
       <c r="A738" s="1">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B738" t="s">
         <v>1369</v>
@@ -12886,7 +12880,7 @@
     </row>
     <row r="739" spans="1:3">
       <c r="A739" s="1">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B739" t="s">
         <v>1371</v>
@@ -12897,7 +12891,7 @@
     </row>
     <row r="740" spans="1:3">
       <c r="A740" s="1">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B740" t="s">
         <v>1373</v>
@@ -12908,7 +12902,7 @@
     </row>
     <row r="741" spans="1:3">
       <c r="A741" s="1">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B741" t="s">
         <v>1375</v>
@@ -12919,7 +12913,7 @@
     </row>
     <row r="742" spans="1:3">
       <c r="A742" s="1">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B742" t="s">
         <v>1377</v>
@@ -12930,7 +12924,7 @@
     </row>
     <row r="743" spans="1:3">
       <c r="A743" s="1">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B743" t="s">
         <v>1379</v>
@@ -12941,7 +12935,7 @@
     </row>
     <row r="744" spans="1:3">
       <c r="A744" s="1">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B744" t="s">
         <v>1381</v>
@@ -12952,7 +12946,7 @@
     </row>
     <row r="745" spans="1:3">
       <c r="A745" s="1">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B745" t="s">
         <v>1383</v>
@@ -12963,7 +12957,7 @@
     </row>
     <row r="746" spans="1:3">
       <c r="A746" s="1">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B746" t="s">
         <v>1385</v>
@@ -12974,35 +12968,24 @@
     </row>
     <row r="747" spans="1:3">
       <c r="A747" s="1">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B747" t="s">
         <v>1387</v>
       </c>
       <c r="C747" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="748" spans="1:3">
       <c r="A748" s="1">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B748" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C748" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="749" spans="1:3">
-      <c r="A749" s="1">
-        <v>769</v>
-      </c>
-      <c r="B749" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C749" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
   </sheetData>
